--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,658 +436,646 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~$洁</t>
+          <t>丁永健</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3222000803</t>
+          <t>3122000519</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>丁永健</t>
+          <t>余振杰</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3122000519</t>
+          <t>3122000788</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>余振杰</t>
+          <t>余焯荣</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3122000788</t>
+          <t>3122000604</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>余焯荣</t>
+          <t>傅锐</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3122000604</t>
+          <t>3222000518</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>傅锐</t>
+          <t>关懂华</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3222000518</t>
+          <t>3122000937</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>关懂华</t>
+          <t>刘喜双</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>122000937社会实践报告.doc</t>
+          <t>3122000669</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>刘喜双</t>
+          <t>华芳平</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3122000669</t>
+          <t>3122000776</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>华芳平</t>
+          <t>叶詠强</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>122000776社会实践报告.doc</t>
+          <t>3122000577</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>叶詠强</t>
+          <t>吴晓轩</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3122000577</t>
+          <t>3122000884</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吴晓轩</t>
+          <t>周宏亮</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3122000884</t>
+          <t>3122000588</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>周宏亮</t>
+          <t>周晓芬</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3122000588</t>
+          <t>3222000509</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>周晓芬</t>
+          <t>夏润坚</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3222000509</t>
+          <t>3122000931</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>夏润坚</t>
+          <t>廖天伦</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3122000931</t>
+          <t>3122000715</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>廖天伦</t>
+          <t>廖楚瑶</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3122000715</t>
+          <t>3222000624</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>廖楚瑶</t>
+          <t>张奕铠</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3222000624</t>
+          <t>3122000819</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>张奕铠</t>
+          <t>张永益</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3122000819</t>
+          <t>3122000929</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>张永益</t>
+          <t>彭志鹏</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3122000929</t>
+          <t>3122000760</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>彭志鹏</t>
+          <t>徐倩莹</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3122000760</t>
+          <t>3222000699</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐倩莹</t>
+          <t>方晓桐</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3222000699</t>
+          <t>3222000807</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>方晓桐</t>
+          <t>朱津平</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3222000807</t>
+          <t>3122000645</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>朱津平</t>
+          <t>李文超</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3122000645</t>
+          <t>3122000678</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>李文超</t>
+          <t>李柏康</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3122000678</t>
+          <t>3122000564</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>李柏康</t>
+          <t>李阳</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3122000564</t>
+          <t>3122000914</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>李阳</t>
+          <t>杨郑丁伟</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3122000914</t>
+          <t>3122000654</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>杨郑丁伟</t>
+          <t>林哲绚</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3122000654</t>
+          <t>3222000671</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>林哲绚</t>
+          <t>林旭升</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3222000671</t>
+          <t>3122000855</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>林旭升</t>
+          <t>林济杰</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3122000855</t>
+          <t>3122000513</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>林济杰</t>
+          <t>林渝深</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3122000513</t>
+          <t>3122000919</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>林渝深</t>
+          <t>毛旭文</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3122000919</t>
+          <t>312200903</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>毛旭文</t>
+          <t>江镇林</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>312200903</t>
+          <t>3122000651</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>江镇林</t>
+          <t>洪禹琳</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3122000651</t>
+          <t>3122000867</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>洪禹琳</t>
+          <t>王金洪</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3122000867</t>
+          <t>3122000871</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>王金洪</t>
+          <t>管政</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3122000871</t>
+          <t>3122000670</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>管政</t>
+          <t>翁俊鸿</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3122000670</t>
+          <t>3122000933</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>翁俊鸿</t>
+          <t>胡世杰</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3122000933</t>
+          <t>3122000704</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>胡世杰</t>
+          <t xml:space="preserve">胡国睿 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3122000704</t>
+          <t>3122000647</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>胡国睿</t>
+          <t>苏洋</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3122000647</t>
+          <t>3222000724</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>苏洋</t>
+          <t>董淇青</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3222000724</t>
+          <t>3122000873</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>董淇青</t>
+          <t>蓝建龙</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3122000873</t>
+          <t>3122000798</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>蓝建龙</t>
+          <t>蔡云洁</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3122000798</t>
+          <t>3222000803</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>蔡云洁</t>
+          <t>许文蕊</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3222000803</t>
+          <t>3222000921</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>许文蕊</t>
+          <t>许日兰</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3222000921</t>
+          <t>3222000696</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>许日兰</t>
+          <t>赵彦林</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3222000696</t>
+          <t>3122000563</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>赵彦林</t>
+          <t>郑相展</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3122000563</t>
+          <t>3122000695</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>郑相展</t>
+          <t>郭浩俊</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3122000695</t>
+          <t>3122000602</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>郭浩俊</t>
+          <t>阮兆康</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3122000602</t>
+          <t>3122000514</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>阮兆康</t>
+          <t>陈柏成</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3122000514</t>
+          <t>3122000625</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>陈柏成</t>
+          <t>陈洁媚</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3122000625</t>
+          <t>3222000738</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>陈洁媚</t>
+          <t>陈煜</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>322000738</t>
+          <t>3122000642</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>陈煜</t>
+          <t>陈璧君</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>122000642社会实践报告.doc</t>
+          <t>3222000909</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>陈璧君</t>
+          <t>陈非凡</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3222000909</t>
+          <t>3122000765</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>陈非凡</t>
+          <t>饶浪</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3122000765</t>
+          <t>3122000830</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>饶浪</t>
+          <t>黄树浩</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3122000830</t>
+          <t>3122000644</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>黄树浩</t>
+          <t>黄赞霖</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>3122000644</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>黄赞霖</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
         <is>
           <t>3122000681</t>
         </is>
